--- a/academic/r_tutorial/Data.xlsx
+++ b/academic/r_tutorial/Data.xlsx
@@ -43,10 +43,10 @@
     <t>Laird AGL</t>
   </si>
   <si>
-    <t>Sutherland, Canada</t>
+    <t>Jessore, Bangladesh</t>
   </si>
   <si>
-    <t>Jessore, Bangladesh</t>
+    <t>Saskatoon, Canada</t>
   </si>
 </sst>
 </file>
@@ -878,7 +878,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,7 +1062,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>2016</v>
@@ -1079,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>2016</v>
@@ -1096,7 +1096,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>2016</v>
@@ -1113,7 +1113,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>2016</v>
@@ -1130,7 +1130,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>2016</v>
@@ -1147,7 +1147,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>2016</v>
@@ -1164,7 +1164,7 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>2016</v>
@@ -1181,7 +1181,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>2016</v>
@@ -1198,7 +1198,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>2016</v>
@@ -1215,7 +1215,7 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>2017</v>
@@ -1232,7 +1232,7 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>2017</v>
@@ -1249,7 +1249,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>2017</v>
@@ -1266,7 +1266,7 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>2017</v>
@@ -1283,7 +1283,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>2017</v>
@@ -1300,7 +1300,7 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>2017</v>
@@ -1317,7 +1317,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>2017</v>
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>2017</v>
@@ -1504,7 +1504,7 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <v>2016</v>
@@ -1521,7 +1521,7 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38">
         <v>2016</v>
@@ -1538,7 +1538,7 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39">
         <v>2016</v>
@@ -1555,7 +1555,7 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40">
         <v>2016</v>
@@ -1572,7 +1572,7 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41">
         <v>2016</v>
@@ -1589,7 +1589,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42">
         <v>2016</v>
@@ -1606,7 +1606,7 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43">
         <v>2016</v>
@@ -1623,7 +1623,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44">
         <v>2016</v>
@@ -1640,7 +1640,7 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45">
         <v>2016</v>
@@ -1657,7 +1657,7 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C46">
         <v>2017</v>
@@ -1674,7 +1674,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C47">
         <v>2017</v>
@@ -1691,7 +1691,7 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C48">
         <v>2017</v>
@@ -1708,7 +1708,7 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C49">
         <v>2017</v>
@@ -1725,7 +1725,7 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50">
         <v>2017</v>
@@ -1742,7 +1742,7 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51">
         <v>2017</v>
@@ -1759,7 +1759,7 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C52">
         <v>2017</v>
@@ -1776,7 +1776,7 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C53">
         <v>2017</v>
@@ -1793,7 +1793,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C54">
         <v>2017</v>
@@ -1810,7 +1810,7 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C55">
         <v>2017</v>
